--- a/medicine/Psychotrope/Vignoble_de_Marlborough/Vignoble_de_Marlborough.xlsx
+++ b/medicine/Psychotrope/Vignoble_de_Marlborough/Vignoble_de_Marlborough.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de Marlborough est situé au Nord de l'île du Sud de la Nouvelle-Zélande, dans la région de Marlborough, proche de la ville de Blenheim.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières vignes locales furent plantées en 1873, avec du muscat blanc à petits grains par David Herd. Le premier vignoble à vocation commerciale de 1 173 hectares a été installé en 1973 par Montana, l'hectare a alors été acheté 1.146 NZ$.
-Au début des années 2000, la valeur des terrains vinicoles grimpe pour atteindre les 200.000 NZ$ l'hectare[1]. En 2013, 23 232 hectares de vignes étaient planté dans la région, ce qui en fait la plus grande région viticole de Nouvelle-Zélande avec 73 % de la production nationale[2].
-Le Marlborough Wine &amp; Food festival est un événement annuel organisé le 14 février par les 46 domaines viticoles de la région[3].
+Au début des années 2000, la valeur des terrains vinicoles grimpe pour atteindre les 200.000 NZ$ l'hectare. En 2013, 23 232 hectares de vignes étaient planté dans la région, ce qui en fait la plus grande région viticole de Nouvelle-Zélande avec 73 % de la production nationale.
+Le Marlborough Wine &amp; Food festival est un événement annuel organisé le 14 février par les 46 domaines viticoles de la région.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Climatologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le climat est ensoleillé, avec 2409 heures de soleil annuelles, avec des températures modérées, mais de fortes variations journalières.
 Les vents côtiers de l'est caractéristiques du climat provoquent avec les montagnes protectrices une zone venteuse et pluvieuse. Les précipitations sont de 655 mm par an, ce qui en fait une région sèche. L'automne peut être doux et favoriser la maturation.
@@ -576,7 +592,9 @@
           <t>Pédologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble est principalement planté en plaine, et en légers coteaux. La rivière Wairau passe au nord de la région de Marlborough. Le fleuve Awatere définit la vallée Sud.
 Le succès viticole de la région de Marlborough est dû à la présence de sols caillouteux et drainants, issus de la présence ancienne de glaciers.
@@ -611,8 +629,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Encépagement
-Le sauvignon blanc est le cépage majoritaire qui fait l'identité de la région. Il représente 17 829 ha.
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sauvignon blanc est le cépage majoritaire qui fait l'identité de la région. Il représente 17 829 ha.
 Le pinot noir est planté sur 2 397 ha
 Le chardonnay est présent sur 1 027 ha
 Le pinot gris représente 946 ha
@@ -620,10 +643,6 @@
 Le gewürztraminer représente 87 ha de plantations
 Le viognier comporte 18ha de cultivés seulement
 Il existe en moindres proportions des vignobles de Grüner Veltliner, syrah, arneis, tempranillo, ...
-Pratiques culturales
-Les vignes sont majoritairement plantées hautes et larges, à une densité moyenne de 4000 à 5000 pieds/ha.
-L'irrigation est présente sur la quasi-totalité du vignoble, étant indispensable du fait des sols très drainants.
-Les oiseaux sont nuisibles après la véraison, venant piller les raisins. La majorité des domaines protègent les vignes avec des filets. L'utilisation de rapaces comme le faucon pour les chasser et les effrayer est aussi pratiquée, notamment par le domaine Brancott Estate, qui met en valeur cette utilisation dans l'histoire de son domaine, et le marketing.
 </t>
         </is>
       </c>
@@ -649,10 +668,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Viticulture et œnologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pratiques culturales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes sont majoritairement plantées hautes et larges, à une densité moyenne de 4000 à 5000 pieds/ha.
+L'irrigation est présente sur la quasi-totalité du vignoble, étant indispensable du fait des sols très drainants.
+Les oiseaux sont nuisibles après la véraison, venant piller les raisins. La majorité des domaines protègent les vignes avec des filets. L'utilisation de rapaces comme le faucon pour les chasser et les effrayer est aussi pratiquée, notamment par le domaine Brancott Estate, qui met en valeur cette utilisation dans l'histoire de son domaine, et le marketing.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -675,10 +707,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sous-régions</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -701,12 +735,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Sous-régions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Marlborough</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Marlborough</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Domaines</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plus de 150 domaines dans la région de Marlborough, et plus de 450 producteurs[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plus de 150 domaines dans la région de Marlborough, et plus de 450 producteurs.
 Liste des domaines de la région de Marlborough : 
 Allan Scott
 Antmoore Wineworks
